--- a/Casos de prueba tarjeta de credito.xlsx
+++ b/Casos de prueba tarjeta de credito.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b12s304\Documents\lpcl\cheat-sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4CA2A1-DB01-49C7-AE21-770C59EB1AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD6BEBF-CEBD-4549-8C1D-A0291E5EB439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,19 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Salida</t>
-  </si>
-  <si>
-    <t>excel</t>
   </si>
   <si>
     <t>Total Abonos</t>
@@ -139,6 +125,18 @@
   <si>
     <t>ERROR: El valor de la compra debe ser mayor que cero</t>
   </si>
+  <si>
+    <t>Valor de la Compra</t>
+  </si>
+  <si>
+    <t>Tasa de Interés Mensual</t>
+  </si>
+  <si>
+    <t>Plazo en meses</t>
+  </si>
+  <si>
+    <t>Cuota Mensual</t>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -218,6 +216,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -536,13 +538,13 @@
   <dimension ref="A3:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" hidden="1" customWidth="1"/>
@@ -556,47 +558,47 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>200000</v>
       </c>
       <c r="C5" s="2">
@@ -640,9 +642,9 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <v>850000</v>
       </c>
       <c r="C6" s="2">
@@ -656,7 +658,7 @@
         <v>52377.498639836558</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:F17" si="2">PMT(C6,D6,B6)*-1</f>
+        <f t="shared" ref="F6:F10" si="2">PMT(C6,D6,B6)*-1</f>
         <v>52377.498639836529</v>
       </c>
       <c r="G6" s="1">
@@ -685,6 +687,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -692,8 +695,9 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -701,9 +705,9 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
         <v>90000</v>
       </c>
       <c r="C9" s="2">
@@ -715,7 +719,7 @@
       <c r="E9">
         <v>90000</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>90000</v>
       </c>
       <c r="G9" s="1">
@@ -745,9 +749,9 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
         <v>480000</v>
       </c>
       <c r="C10">
@@ -769,7 +773,7 @@
         <v>480000</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ref="H10:H17" si="5">ROUND(G10-B10,2)</f>
+        <f t="shared" ref="H10" si="5">ROUND(G10-B10,2)</f>
         <v>0</v>
       </c>
       <c r="I10" t="str">
@@ -784,23 +788,25 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
         <v>50000</v>
       </c>
       <c r="C13" s="2">
@@ -814,7 +820,7 @@
         <v>6205.5821802692026</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -829,11 +835,14 @@
 Total Intereses: </v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="C15" s="2">
@@ -843,10 +852,10 @@
         <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -863,9 +872,9 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3">
         <v>80000</v>
       </c>
       <c r="C16" s="2">
@@ -875,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -895,9 +904,9 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3">
         <v>50000</v>
       </c>
       <c r="C17" s="2">
@@ -907,10 +916,10 @@
         <v>-10</v>
       </c>
       <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -927,13 +936,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>53000</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J20">
         <v>10</v>
@@ -941,13 +950,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -955,33 +964,33 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3">
         <f>INDEX($A$5:$E$17,$B$21,5)</f>
@@ -996,7 +1005,7 @@
         <v>200000</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H23" s="3">
         <f>INDEX($A$5:$E$17,$B$21,5)</f>
@@ -5537,5 +5546,6 @@
     <mergeCell ref="F3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Casos de prueba tarjeta de credito.xlsx
+++ b/Casos de prueba tarjeta de credito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b12s304\Documents\lpcl\cheat-sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD6BEBF-CEBD-4549-8C1D-A0291E5EB439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A87DADF-532F-4224-ACF8-BF94C2460585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Salida</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Casos Normales</t>
   </si>
   <si>
-    <t>Casos Excepcionales</t>
-  </si>
-  <si>
     <t>Casos de Error</t>
   </si>
   <si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>Cuota Mensual</t>
+  </si>
+  <si>
+    <t>Casos Extraordinarios</t>
+  </si>
+  <si>
+    <t>Error Demasiadas Cuotas</t>
   </si>
 </sst>
 </file>
@@ -210,16 +213,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -537,9 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -557,40 +558,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -608,7 +609,7 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E13" si="0">(B5*C5) / (1 - POWER( (1+C5), -D5) )</f>
+        <f t="shared" ref="E5:E14" si="0">(B5*C5) / (1 - POWER( (1+C5), -D5) )</f>
         <v>9297.9591156473489</v>
       </c>
       <c r="F5" s="1">
@@ -616,7 +617,7 @@
         <v>9297.9591156473398</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G10" si="1">F5*D5</f>
+        <f t="shared" ref="G5" si="1">F5*D5</f>
         <v>334726.5281633042</v>
       </c>
       <c r="H5" s="1">
@@ -634,10 +635,10 @@
         <v>Caso Normal
 Entradas:
 - Monto: 200000
-- Tasa: 3.1%
+- Tasa: 3,1%
 - Cuotas: 36
 Salidas
-Total Intereses: 134726.53</v>
+Total Intereses: 134726,53</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -658,7 +659,7 @@
         <v>52377.498639836558</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:F10" si="2">PMT(C6,D6,B6)*-1</f>
+        <f t="shared" ref="F6" si="2">PMT(C6,D6,B6)*-1</f>
         <v>52377.498639836529</v>
       </c>
       <c r="G6" s="1">
@@ -680,10 +681,10 @@
         <v>Caso Normal 2
 Entradas:
 - Monto: 850000
-- Tasa: 3.4%
+- Tasa: 3,4%
 - Cuotas: 24
 Salidas
-Total Intereses: 407059.97</v>
+Total Intereses: 407059,97</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -695,7 +696,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -705,29 +706,31 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>90000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.4E-2</v>
+        <v>480000</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>90000</v>
-      </c>
-      <c r="F9" s="9">
-        <v>90000</v>
+        <f>B9/D9</f>
+        <v>10000</v>
+      </c>
+      <c r="F9" s="1">
+        <f>PMT(C9,D9,B9)*-1</f>
+        <v>10000</v>
       </c>
       <c r="G9" s="1">
         <f>F9*D9</f>
-        <v>90000</v>
+        <v>480000</v>
       </c>
       <c r="H9" s="1">
-        <f>ROUND(G9-B9,2)</f>
+        <f t="shared" ref="H9" si="5">ROUND(G9-B9,2)</f>
         <v>0</v>
       </c>
       <c r="I9" t="str">
@@ -738,46 +741,6 @@
 - Cuotas: " &amp; D9 &amp; "
 Salidas
 Total Intereses: " &amp; H9</f>
-        <v>Cuota unica
-Entradas:
-- Monto: 90000
-- Tasa: 2.4%
-- Cuotas: 1
-Salidas
-Total Intereses: 0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3">
-        <v>480000</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>48</v>
-      </c>
-      <c r="E10">
-        <f>B10/D10</f>
-        <v>10000</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>480000</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ref="H10" si="5">ROUND(G10-B10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="4"/>
         <v>Tasa cero
 Entradas:
 - Monto: 480000
@@ -787,6 +750,50 @@
 Total Intereses: 0</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>90000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>90000</v>
+      </c>
+      <c r="F10" s="7">
+        <v>90000</v>
+      </c>
+      <c r="G10" s="1">
+        <f>F10*D10</f>
+        <v>90000</v>
+      </c>
+      <c r="H10" s="1">
+        <f>ROUND(G10-B10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <f>A10&amp;"
+Entradas:
+- Monto: " &amp; B10 &amp; "
+- Tasa: " &amp; C10*100 &amp; "%
+- Cuotas: " &amp; D10 &amp; "
+Salidas
+Total Intereses: " &amp; H10</f>
+        <v>Cuota unica
+Entradas:
+- Monto: 90000
+- Tasa: 2,4%
+- Cuotas: 1
+Salidas
+Total Intereses: 0</v>
+      </c>
+    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="F11" s="1"/>
@@ -795,7 +802,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3"/>
       <c r="F12" s="1"/>
@@ -804,104 +811,113 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>0.124</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D13">
         <v>60</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.124</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>6205.5821802692026</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" t="str">
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Usura
 Entradas:
 - Monto: 50000
-- Tasa: 12.4%
+- Tasa: 12,4%
 - Cuotas: 60
 Salidas
 Total Intereses: </v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="C15" s="2">
         <v>2.4E-2</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Error Compra
-Entradas:
-- Monto: 0
-- Tasa: 2.4%
-- Cuotas: 60
-Salidas
-Total Intereses: </v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3">
-        <v>80000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" t="str">
-        <f t="shared" si="4"/>
         <v xml:space="preserve">Error Cuotas
 Entradas:
 - Monto: 80000
-- Tasa: 2.4%
+- Tasa: 2,4%
 - Cuotas: 0
 Salidas
 Total Intereses: </v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3">
+        <v>80000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D16">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
@@ -916,10 +932,10 @@
         <v>-10</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
